--- a/Zahin Ahmed/LR_parameter_tuning.xlsx
+++ b/Zahin Ahmed/LR_parameter_tuning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>L2_Penalty</t>
   </si>
@@ -63,22 +63,13 @@
     <t>AMX</t>
   </si>
   <si>
-    <t>PRC_S    0.727273</t>
-  </si>
-  <si>
-    <t>PRC_R    0.802817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCL_S   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCL_R    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSc_S   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSc_R    </t>
+    <t>Sensitivity (TPR)</t>
+  </si>
+  <si>
+    <t>Specificty(TNR)</t>
+  </si>
+  <si>
+    <t>1-Specificity(FPR)</t>
   </si>
 </sst>
 </file>
@@ -396,18 +387,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,28 +421,40 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -465,56 +471,76 @@
         <v>114</v>
       </c>
       <c r="G2">
+        <f>F2/(F2+E2)</f>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="H2">
+        <f>C2/(C2+D2)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I2">
+        <f>1-H2</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="J2">
         <v>0.72727299999999995</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>0.802817</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>0.84444399999999997</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0.69565200000000005</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>0.82310499999999998</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <f>((C2+F2)/SUM(C2:F2))</f>
         <v>0.77625570776255703</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>113</v>
+      </c>
+      <c r="G3">
+        <f>F3/(F3+E3)</f>
+        <v>0.83703703703703702</v>
+      </c>
+      <c r="H3">
+        <f>C3/(C3+D3)</f>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="I3">
+        <f>1-H3</f>
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="J3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K3">
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>

--- a/Zahin Ahmed/LR_parameter_tuning.xlsx
+++ b/Zahin Ahmed/LR_parameter_tuning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>L2_Penalty</t>
   </si>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="I5" sqref="I5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +543,135 @@
         <v>0.69</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>113</v>
+      </c>
+      <c r="G4">
+        <f>F4/(F4+E4)</f>
+        <v>0.83703703703703702</v>
+      </c>
+      <c r="H4">
+        <f>C4/(C4+D4)</f>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="I4">
+        <f>1-H4</f>
+        <v>0.30952380952380953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>113</v>
+      </c>
+      <c r="G5">
+        <f>F5/(F5+E5)</f>
+        <v>0.83703703703703702</v>
+      </c>
+      <c r="H5">
+        <f>C5/(C5+D5)</f>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="I5">
+        <f>1-H5</f>
+        <v>0.30952380952380953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.1429</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>113</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G7" si="0">F6/(F6+E6)</f>
+        <v>0.83703703703703702</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H7" si="1">C6/(C6+D6)</f>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I7" si="2">1-H6</f>
+        <v>0.30952380952380953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>113</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.83703703703703702</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.30952380952380953</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
